--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433CFC11-F202-42F8-B868-4EB337CF5B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B555D5-DD97-464F-BCAE-896828EDD6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -60,9 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Cset_CN</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>MANELC</t>
+  </si>
+  <si>
+    <t>Year2</t>
   </si>
 </sst>
 </file>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +832,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -843,39 +843,39 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>2022</v>
@@ -884,7 +884,7 @@
         <v>2861.5612011470998</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,54 +915,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2"/>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -972,7 +972,7 @@
         <v>3692.8738709213426</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="9">
         <v>0.26498832137448636</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>2030</v>
@@ -993,13 +993,13 @@
         <v>5648.9387778083592</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>2035</v>
@@ -1009,13 +1009,13 @@
         <v>8641.1045789293585</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>2040</v>
@@ -1025,13 +1025,13 @@
         <v>13218.179782249905</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>2045</v>
@@ -1041,12 +1041,12 @@
         <v>20219.669274912092</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>2050</v>
@@ -1056,7 +1056,7 @@
         <v>30929.752229261561</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B555D5-DD97-464F-BCAE-896828EDD6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71269C50-3C9D-4F01-A2CA-767557DCED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Year2</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -898,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71269C50-3C9D-4F01-A2CA-767557DCED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3FE69-2C72-43A1-8389-84F82A543036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
-    <sheet name="IND_Dem" sheetId="2" r:id="rId2"/>
+    <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
+    <sheet name="IND_MELC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
         <v>2025</v>
       </c>
       <c r="F4" s="10">
-        <f>BY_Data!$H$4*(1+$K$4)^(E4-2022)</f>
+        <f>BY_MELC!$H$4*(1+$K$4)^(E4-2022)</f>
         <v>3692.8738709213426</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -992,7 +992,7 @@
         <v>2030</v>
       </c>
       <c r="F5" s="10">
-        <f>BY_Data!$H$4*(1+$K$4)^(E5-2022)</f>
+        <f>BY_MELC!$H$4*(1+$K$4)^(E5-2022)</f>
         <v>5648.9387778083592</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1008,7 +1008,7 @@
         <v>2035</v>
       </c>
       <c r="F6" s="10">
-        <f>BY_Data!$H$4*(1+$K$4)^(E6-2022)</f>
+        <f>BY_MELC!$H$4*(1+$K$4)^(E6-2022)</f>
         <v>8641.1045789293585</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1024,7 +1024,7 @@
         <v>2040</v>
       </c>
       <c r="F7" s="10">
-        <f>BY_Data!$H$4*(1+$K$4)^(E7-2022)</f>
+        <f>BY_MELC!$H$4*(1+$K$4)^(E7-2022)</f>
         <v>13218.179782249905</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1040,7 +1040,7 @@
         <v>2045</v>
       </c>
       <c r="F8" s="10">
-        <f>BY_Data!$H$4*(1+$K$4)^(E8-2022)</f>
+        <f>BY_MELC!$H$4*(1+$K$4)^(E8-2022)</f>
         <v>20219.669274912092</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1055,7 +1055,7 @@
         <v>2050</v>
       </c>
       <c r="F9" s="10">
-        <f>BY_Data!$H$4*(1+$K$4)^(E9-2022)</f>
+        <f>BY_MELC!$H$4*(1+$K$4)^(E9-2022)</f>
         <v>30929.752229261561</v>
       </c>
       <c r="G9" s="6" t="s">

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3FE69-2C72-43A1-8389-84F82A543036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1C36D-D632-4721-8528-7FD789873D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>DayNite</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,6 +879,9 @@
       </c>
       <c r="C4" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -902,7 +908,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1C36D-D632-4721-8528-7FD789873D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799EC994-73E4-42CE-A377-87F128476218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
     <sheet name="IND_MELC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Demand Driver (annual growth)</t>
-  </si>
-  <si>
-    <t>~TFM_FILL</t>
   </si>
   <si>
     <t>Operation_Sum_Avg_Count</t>
@@ -160,6 +157,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -827,7 +825,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,9 +835,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -849,10 +845,10 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -864,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>0</v>
@@ -875,13 +871,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -893,7 +889,7 @@
         <v>2861.5612011470998</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -937,10 +933,10 @@
       </c>
       <c r="G2" s="2"/>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -954,19 +950,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,7 +977,7 @@
         <v>3692.8738709213426</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="9">
         <v>0.26498832137448636</v>
@@ -1002,7 +998,7 @@
         <v>5648.9387778083592</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -1018,7 +1014,7 @@
         <v>8641.1045789293585</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -1034,7 +1030,7 @@
         <v>13218.179782249905</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1050,7 +1046,7 @@
         <v>20219.669274912092</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1065,7 +1061,7 @@
         <v>30929.752229261561</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBE8FC7-FC49-4F0D-89BE-B694061613C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDAFCA-660A-440E-B6C8-76EB494E2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
     <sheet name="IND_MELC" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -538,6 +541,46 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Energybalance history"/>
+      <sheetName val="Enrgy growth"/>
+      <sheetName val="TechnologydataTech"/>
+      <sheetName val="EBF TJ"/>
+      <sheetName val="EBF"/>
+      <sheetName val="RES&amp;OBJ"/>
+      <sheetName val="PRI_Sector_Fuels"/>
+      <sheetName val="DemTechs_INDF"/>
+      <sheetName val="Demands"/>
+      <sheetName val="Emi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="10">
+          <cell r="M10">
+            <v>0.20222228165192857</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -828,7 +871,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +952,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +1022,7 @@
       </c>
       <c r="F4" s="10">
         <f>BY_MELC!$H$4*(1+$K$4)^(E4-2022)</f>
-        <v>3692.8738709213426</v>
+        <v>4972.3003841051932</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -988,7 +1031,8 @@
         <v>0.26498832137448636</v>
       </c>
       <c r="K4" s="11">
-        <v>8.8730723400078371E-2</v>
+        <f>[1]Demands!$M$10</f>
+        <v>0.20222228165192857</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1000,7 +1044,7 @@
       </c>
       <c r="F5" s="10">
         <f>BY_MELC!$H$4*(1+$K$4)^(E5-2022)</f>
-        <v>5648.9387778083592</v>
+        <v>12487.66446859296</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
@@ -1016,7 +1060,7 @@
       </c>
       <c r="F6" s="10">
         <f>BY_MELC!$H$4*(1+$K$4)^(E6-2022)</f>
-        <v>8641.1045789293585</v>
+        <v>31362.096380712152</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
@@ -1032,7 +1076,7 @@
       </c>
       <c r="F7" s="10">
         <f>BY_MELC!$H$4*(1+$K$4)^(E7-2022)</f>
-        <v>13218.179782249905</v>
+        <v>78764.215027303871</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -1048,7 +1092,7 @@
       </c>
       <c r="F8" s="10">
         <f>BY_MELC!$H$4*(1+$K$4)^(E8-2022)</f>
-        <v>20219.669274912092</v>
+        <v>197812.08161463114</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1063,7 +1107,7 @@
       </c>
       <c r="F9" s="10">
         <f>BY_MELC!$H$4*(1+$K$4)^(E9-2022)</f>
-        <v>30929.752229261561</v>
+        <v>496794.3833268584</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>

--- a/SuppXLS/Scen_DemProj_INDELC.xlsx
+++ b/SuppXLS/Scen_DemProj_INDELC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDAFCA-660A-440E-B6C8-76EB494E2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110A283-1A00-4BBC-BE80-BF509B50CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_MELC" sheetId="6" r:id="rId1"/>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
